--- a/xls/guildAdviserDealConfig.xlsx
+++ b/xls/guildAdviserDealConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="60" windowWidth="27765" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="18600" yWindow="90" windowWidth="27765" windowHeight="13560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,14 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>晓之以理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>诱之以利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>subamity[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,27 +129,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>consumefund[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗公会资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>consumediamond[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>消耗钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -631,10 +607,10 @@
     <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -643,28 +619,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25">
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -675,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -687,16 +660,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25">
+    </row>
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -722,13 +692,10 @@
         <v>100</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -754,13 +721,10 @@
         <v>100</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -786,13 +750,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -818,13 +779,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -832,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>200</v>
@@ -850,13 +808,10 @@
         <v>100</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -864,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>200</v>
@@ -882,13 +837,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -896,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5">
         <v>200</v>
@@ -914,13 +866,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -928,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5">
         <v>200</v>
@@ -946,77 +895,32 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5">
-        <v>200</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100</v>
-      </c>
-      <c r="G11" s="5">
-        <v>58</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>100</v>
-      </c>
-      <c r="J11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5">
-        <v>200</v>
-      </c>
-      <c r="E12" s="5">
-        <v>200</v>
-      </c>
-      <c r="F12" s="5">
-        <v>100</v>
-      </c>
-      <c r="G12" s="5">
-        <v>59</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>100</v>
-      </c>
-      <c r="J12" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1026,9 +930,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1038,9 +941,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25">
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1050,9 +952,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25">
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1062,7 +963,6 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xls/guildAdviserDealConfig.xlsx
+++ b/xls/guildAdviserDealConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="90" windowWidth="27765" windowHeight="13560" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>102030:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>succProb[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,6 +53,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>减少对方友好度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addamity[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加己方友好度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumeEuro[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗欧元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumediamond[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102038:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>拍马屁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,43 +125,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>减少对方友好度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addamity[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加己方友好度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contribute[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumeEuro[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗欧元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumediamond[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗钻石</t>
+    <t>type[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +201,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +244,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +568,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -592,52 +597,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,282 +653,311 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
+        <v>100</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8">
+        <v>57</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>80</v>
+      </c>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>240</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>320</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H7" s="8">
+        <v>75</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8">
+        <v>90</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="F9" s="8">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>130</v>
+      </c>
+      <c r="F10" s="8">
+        <v>130</v>
+      </c>
+      <c r="G10" s="8">
+        <v>320</v>
+      </c>
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>200</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>200</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>100</v>
-      </c>
-      <c r="G4" s="5">
-        <v>51</v>
-      </c>
-      <c r="H4" s="5">
-        <v>100</v>
-      </c>
-      <c r="I4" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="5">
-        <v>52</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>100</v>
-      </c>
-      <c r="G6" s="5">
-        <v>53</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5">
-        <v>200</v>
-      </c>
-      <c r="E7" s="5">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
-        <v>54</v>
-      </c>
-      <c r="H7" s="5">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5">
-        <v>200</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100</v>
-      </c>
-      <c r="G8" s="5">
-        <v>55</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5">
-        <v>200</v>
-      </c>
-      <c r="E9" s="5">
-        <v>200</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5">
-        <v>200</v>
-      </c>
-      <c r="E10" s="5">
-        <v>200</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100</v>
-      </c>
-      <c r="G10" s="5">
-        <v>57</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25">
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.25">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -930,8 +967,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -941,8 +979,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -952,8 +991,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -963,6 +1003,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
